--- a/scoring/tests/WAQ/WAQ_test_2.xlsx
+++ b/scoring/tests/WAQ/WAQ_test_2.xlsx
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5">
